--- a/tiket_export2021-03-26 08:08:46.xlsx
+++ b/tiket_export2021-03-26 08:08:46.xlsx
@@ -2065,7 +2065,7 @@
   <dimension ref="A1:U114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
